--- a/backend/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>00cb5d4c-33e7-4a9a-be12-33bf353e9b72</t>
+    <t>b808d453-264e-4d00-9953-73611a738ae3</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>b808d453-264e-4d00-9953-73611a738ae3</t>
+    <t>237f4fd6-54d3-4776-b2c2-b97a79e847b6</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>237f4fd6-54d3-4776-b2c2-b97a79e847b6</t>
+    <t>65b9475a-cb9a-4319-a791-4c113c19da84</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>65b9475a-cb9a-4319-a791-4c113c19da84</t>
+    <t>4108c95c-3cc7-4d4c-aa22-4bc96d41f086</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>4108c95c-3cc7-4d4c-aa22-4bc96d41f086</t>
+    <t>8afaff15-c754-4f63-9f0d-3dd6a0cf0051</t>
   </si>
   <si>
     <t>ABARÉ</t>

--- a/backend/storage/app/xlsx/seed_cidades_ba.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_ba.xlsx
@@ -23,7 +23,7 @@
     <t>ABAIRENSE</t>
   </si>
   <si>
-    <t>8afaff15-c754-4f63-9f0d-3dd6a0cf0051</t>
+    <t>a8a88c7e-68ba-4f51-9948-80ef76a56a82</t>
   </si>
   <si>
     <t>ABARÉ</t>
